--- a/Input/Toll Choice Calibration_ColonialPkwy2017-1024.xlsx
+++ b/Input/Toll Choice Calibration_ColonialPkwy2017-1024.xlsx
@@ -1378,11 +1378,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="799595952"/>
-        <c:axId val="799595560"/>
+        <c:axId val="574008520"/>
+        <c:axId val="574009696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="799595952"/>
+        <c:axId val="574008520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.7000000000000002"/>
@@ -1496,12 +1496,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="799595560"/>
+        <c:crossAx val="574009696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="799595560"/>
+        <c:axId val="574009696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
@@ -1622,7 +1622,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="799595952"/>
+        <c:crossAx val="574008520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2979,11 +2979,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="799591640"/>
-        <c:axId val="609265176"/>
+        <c:axId val="574019104"/>
+        <c:axId val="574020280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="799591640"/>
+        <c:axId val="574019104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.25"/>
@@ -3105,13 +3105,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609265176"/>
+        <c:crossAx val="574020280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="609265176"/>
+        <c:axId val="574020280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.4"/>
@@ -3233,7 +3233,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="799591640"/>
+        <c:crossAx val="574019104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -4519,9 +4519,9 @@
       <sheetName val="Ref - Express on Turnpike"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="3">
           <cell r="C3">
@@ -4547,9 +4547,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
       <sheetData sheetId="7">
         <row r="4">
           <cell r="D4">
@@ -4564,7 +4564,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
